--- a/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01162288853488263</v>
+        <v>0.01139472280925853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004832896685364479</v>
+        <v>0.004616791860782187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06082090531182912</v>
+        <v>0.06147674701658853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004982189699789973</v>
+        <v>0.005060551344200389</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01428066056939366</v>
+        <v>0.01417253226164169</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01377290172584605</v>
+        <v>0.01399695000823326</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06600567729150367</v>
+        <v>0.06471255127346734</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004409005016631783</v>
+        <v>0.004181734176275823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0189107628101894</v>
+        <v>0.01726092430947871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01388739836723866</v>
+        <v>0.01194063195433389</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07349111204024718</v>
+        <v>0.07809438579390167</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01892553055561723</v>
+        <v>0.02176982070411111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06448470476219499</v>
+        <v>0.06208639446519718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04260722613970472</v>
+        <v>0.0437554116427213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2056852335263167</v>
+        <v>0.2040229708806902</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05050071754241649</v>
+        <v>0.04698391106732016</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07464007153381828</v>
+        <v>0.07448521629729515</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06706659697814216</v>
+        <v>0.06628422388456294</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1958376375663735</v>
+        <v>0.1865464624628995</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02488483124872622</v>
+        <v>0.02589832294129987</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0565483622958099</v>
+        <v>0.05426960230919484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04352459308589587</v>
+        <v>0.04314455602887545</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1762323729594502</v>
+        <v>0.179486235140725</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01355546244096481</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1071916809135508</v>
+        <v>0.1071916809135509</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.009697842255580347</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008553647647689389</v>
+        <v>0.008439867735405511</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003800474184859332</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05619968241423521</v>
+        <v>0.05077514819908113</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003765034776316472</v>
+        <v>0.003809202424716311</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004204501675099882</v>
+        <v>0.004227090146044117</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09437446221613034</v>
+        <v>0.09403852807510461</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006402433593091672</v>
+        <v>0.00665734939549323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002077590063832201</v>
+        <v>0.003803082272595693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006367406670050181</v>
+        <v>0.00632184995176301</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08919947001886137</v>
+        <v>0.0916074384128724</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07549177531392538</v>
+        <v>0.06843344693581825</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0391826249172075</v>
+        <v>0.03562154438228327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03824130704913249</v>
+        <v>0.03483100855247762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1912628748415998</v>
+        <v>0.1877558251376642</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0303315066868138</v>
+        <v>0.03276686291567404</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03393506135822345</v>
+        <v>0.03425503107337551</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04141435022421937</v>
+        <v>0.04532140008030367</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2234060120586272</v>
+        <v>0.2311335286456344</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03695711560900773</v>
+        <v>0.04145300612776456</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02369642675419606</v>
+        <v>0.02431417937353323</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03140469970748134</v>
+        <v>0.0310519053303946</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1873136008055288</v>
+        <v>0.1871429856111995</v>
       </c>
     </row>
     <row r="10">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002346308165107389</v>
+        <v>0.002337831592855098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003017478841071129</v>
+        <v>0.00302472905632575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08880811882717944</v>
+        <v>0.09220680665248587</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -999,19 +999,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1864435807052704</v>
+        <v>0.1973910730689367</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001934457441474519</v>
+        <v>0.001927351550762334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003248499960248622</v>
+        <v>0.003228937705243945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002211156224655446</v>
+        <v>0.002186445617043556</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1367670865394201</v>
+        <v>0.1327283696784022</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02037166118626837</v>
+        <v>0.02015150099072103</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02347323591420902</v>
+        <v>0.02343954857201375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02735418965811975</v>
+        <v>0.02678031262926363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2147160885209491</v>
+        <v>0.2210871635508863</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05130608108042959</v>
+        <v>0.04953803331040965</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03288791613602031</v>
+        <v>0.02473304863314782</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.45555742726147</v>
+        <v>0.4354418248981797</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01876698476758908</v>
+        <v>0.01711824435583608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01972027178449016</v>
+        <v>0.01815704995754567</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0197273615948478</v>
+        <v>0.0193524559585841</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2555264031931989</v>
+        <v>0.2513942218474006</v>
       </c>
     </row>
     <row r="13">
@@ -1118,34 +1118,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001626688968262683</v>
+        <v>0.00163133279936672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.126538704262156</v>
+        <v>0.1247194542305232</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007235125392377408</v>
+        <v>0.007068423180736309</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005354886990881697</v>
+        <v>0.003946344940772832</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00170333364598556</v>
+        <v>0.001712229302145915</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07437478776293993</v>
+        <v>0.07780407469115244</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003974492547146789</v>
+        <v>0.003706412889852754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.002230303002034342</v>
+        <v>0.002219939792584369</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002241365469375189</v>
+        <v>0.00183523983978743</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1174684134426852</v>
+        <v>0.1125242390541209</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009360916040703871</v>
+        <v>0.009446286076302103</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.006008009149197051</v>
+        <v>0.006048492205219087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01514496530842302</v>
+        <v>0.01808200431983143</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2514937276444453</v>
+        <v>0.2380293231787441</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03509088089364452</v>
+        <v>0.03455889755512947</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03113457891793855</v>
+        <v>0.02950671297160961</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01500212734401886</v>
+        <v>0.01552918717424869</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1464937408093286</v>
+        <v>0.1469991077671796</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01505249264355361</v>
+        <v>0.01614880300515473</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01308171325507904</v>
+        <v>0.01352378199878104</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0127746613646987</v>
+        <v>0.01228638105605025</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1889927159645846</v>
+        <v>0.1800119846317967</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.007606124722338754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1661337620625323</v>
+        <v>0.1661337620625322</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1252,30 +1252,30 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002158000193320183</v>
+        <v>0.002142008845801215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1002010360627887</v>
+        <v>0.1058687626461423</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.003854491132591719</v>
+        <v>0.003405132069245675</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002061094613254683</v>
+        <v>0.002094049445004044</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1272569590970502</v>
+        <v>0.1305570382838772</v>
       </c>
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="n">
-        <v>0.003601077643910808</v>
+        <v>0.003605582730286138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003515739780499358</v>
+        <v>0.003354230967742588</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1310473072109773</v>
+        <v>0.135405299577758</v>
       </c>
     </row>
     <row r="18">
@@ -1287,33 +1287,33 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02454849147719491</v>
+        <v>0.02398853566540899</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02040068355617645</v>
+        <v>0.02084067718304795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.254830524917166</v>
+        <v>0.2619267739207259</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.02261340793879105</v>
+        <v>0.02286095776139944</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01918422705472851</v>
+        <v>0.02102654640972476</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2036693069074208</v>
+        <v>0.2049836336695109</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.01794014053135491</v>
+        <v>0.01713552643909178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01544070787793473</v>
+        <v>0.01609218220795092</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2015976288705855</v>
+        <v>0.1999637615923987</v>
       </c>
     </row>
     <row r="19">
@@ -1375,31 +1375,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.02705815681502425</v>
+        <v>0.02375334079010106</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.001497955920835422</v>
+        <v>0.001385564197935481</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001542917718029971</v>
+        <v>0.001497896895883535</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1634172638458347</v>
+        <v>0.1646684181768698</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001205605560887595</v>
+        <v>0.001195338940577384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.001503536653926905</v>
+        <v>0.001335838125593967</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1623962475603226</v>
+        <v>0.1618079437415372</v>
       </c>
     </row>
     <row r="21">
@@ -1413,31 +1413,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.4952718486069568</v>
+        <v>0.4984945671719896</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.009360629273384401</v>
+        <v>0.008537886339579749</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01408294229101833</v>
+        <v>0.0138769486556628</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01539962629990128</v>
+        <v>0.01479129835291784</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2482799842450442</v>
+        <v>0.2497588031139899</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.007422875471410345</v>
+        <v>0.008512903832605756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01178762685176869</v>
+        <v>0.01217159288810213</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01418490605949951</v>
+        <v>0.01431177428803117</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2489195756107478</v>
+        <v>0.2528428518503572</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         <v>0.009293335500304176</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1518627418176057</v>
+        <v>0.1518627418176058</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.00770557822319906</v>
@@ -1473,7 +1473,7 @@
         <v>0.009693686025690564</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1654464388784996</v>
+        <v>0.1654464388784995</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.006838793100266628</v>
@@ -1485,7 +1485,7 @@
         <v>0.009513871496621114</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.159849674969358</v>
+        <v>0.1598496749693581</v>
       </c>
     </row>
     <row r="23">
@@ -1496,40 +1496,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002681130931378838</v>
+        <v>0.002833680912856866</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005218020989971872</v>
+        <v>0.005768275783217179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1231834261960226</v>
+        <v>0.1265875390017323</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.004610851717832265</v>
+        <v>0.004689099741670292</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007763245153804671</v>
+        <v>0.00755356201124602</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005999999290575015</v>
+        <v>0.006032777711808534</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1467017255477657</v>
+        <v>0.1464604811330305</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.004506998193462546</v>
+        <v>0.004559690439563941</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.006975697423881272</v>
+        <v>0.007055748069569077</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.006674073372928072</v>
+        <v>0.006969878149175616</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1439991863911158</v>
+        <v>0.1439350828404465</v>
       </c>
     </row>
     <row r="24">
@@ -1540,40 +1540,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01043398823515026</v>
+        <v>0.01090750105739428</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01434880811135511</v>
+        <v>0.01502491934234823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1857670718447104</v>
+        <v>0.1895837786388903</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01270774744162246</v>
+        <v>0.01282269863611168</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01697228840472269</v>
+        <v>0.01698414492733078</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01441692508108782</v>
+        <v>0.01488842531648272</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.188776944180102</v>
+        <v>0.1899577319355753</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01055494675832836</v>
+        <v>0.01038396804066128</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01322244588865078</v>
+        <v>0.01335688162648793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01271071489160267</v>
+        <v>0.013117254182003</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.178125641958303</v>
+        <v>0.1784942736877296</v>
       </c>
     </row>
     <row r="25">
@@ -1849,37 +1849,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4268</v>
+        <v>4314</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2953</v>
+        <v>2931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2847</v>
+        <v>2893</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5268</v>
+        <v>5165</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2152</v>
+        <v>2041</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8737</v>
+        <v>7975</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5914</v>
+        <v>5085</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11023</v>
+        <v>11713</v>
       </c>
     </row>
     <row r="7">
@@ -1890,40 +1890,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5333</v>
+        <v>6134</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16458</v>
+        <v>15846</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9337</v>
+        <v>9589</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14434</v>
+        <v>14318</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10421</v>
+        <v>9695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15435</v>
+        <v>15403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13864</v>
+        <v>13702</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15629</v>
+        <v>14888</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12147</v>
+        <v>12641</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>26126</v>
+        <v>25073</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18536</v>
+        <v>18374</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26432</v>
+        <v>26920</v>
       </c>
     </row>
     <row r="8">
@@ -2026,40 +2026,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1681</v>
+        <v>1659</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3641</v>
+        <v>3290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7036</v>
+        <v>7011</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2689</v>
+        <v>2796</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1054</v>
+        <v>1930</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3007</v>
+        <v>2986</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12429</v>
+        <v>12765</v>
       </c>
     </row>
     <row r="11">
@@ -2070,40 +2070,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14835</v>
+        <v>13448</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10590</v>
+        <v>9628</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8748</v>
+        <v>7968</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12392</v>
+        <v>12165</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6779</v>
+        <v>7323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8048</v>
+        <v>8124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10087</v>
+        <v>11038</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16655</v>
+        <v>17231</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15522</v>
+        <v>17411</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12025</v>
+        <v>12338</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14833</v>
+        <v>14666</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26101</v>
+        <v>26077</v>
       </c>
     </row>
     <row r="12">
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8480</v>
+        <v>8804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2225,19 +2225,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>6668</v>
+        <v>7059</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1923</v>
+        <v>1911</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17951</v>
+        <v>17420</v>
       </c>
     </row>
     <row r="15">
@@ -2248,38 +2248,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6911</v>
+        <v>6836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9599</v>
+        <v>9585</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9040</v>
+        <v>8850</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20502</v>
+        <v>21111</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6470</v>
+        <v>6247</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6016</v>
+        <v>4524</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>16293</v>
+        <v>15573</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8733</v>
+        <v>7966</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11672</v>
+        <v>10746</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8937</v>
+        <v>8767</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>33538</v>
+        <v>32995</v>
       </c>
     </row>
     <row r="16">
@@ -2388,34 +2388,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26074</v>
+        <v>25699</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3400</v>
+        <v>3322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2794</v>
+        <v>2059</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11332</v>
+        <v>11855</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4955</v>
+        <v>4620</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2903</v>
+        <v>2889</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2599</v>
+        <v>2128</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>42103</v>
+        <v>40331</v>
       </c>
     </row>
     <row r="19">
@@ -2426,40 +2426,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7270</v>
+        <v>7336</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4685</v>
+        <v>4716</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9645</v>
+        <v>11515</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>51821</v>
+        <v>49047</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16492</v>
+        <v>16242</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16243</v>
+        <v>15394</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7840</v>
+        <v>8115</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22321</v>
+        <v>22398</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18765</v>
+        <v>20131</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17025</v>
+        <v>17600</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14811</v>
+        <v>14245</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>67739</v>
+        <v>64520</v>
       </c>
     </row>
     <row r="20">
@@ -2566,30 +2566,30 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8178</v>
+        <v>8640</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>2259</v>
+        <v>1995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>26745</v>
+        <v>27439</v>
       </c>
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="n">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3079</v>
+        <v>2938</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>38237</v>
+        <v>39508</v>
       </c>
     </row>
     <row r="23">
@@ -2601,33 +2601,33 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7864</v>
+        <v>7685</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7666</v>
+        <v>7831</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20797</v>
+        <v>21376</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>13250</v>
+        <v>13395</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9593</v>
+        <v>10514</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42804</v>
+        <v>43080</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>16259</v>
+        <v>15530</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13523</v>
+        <v>14094</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>58822</v>
+        <v>58345</v>
       </c>
     </row>
     <row r="24">
@@ -2733,31 +2733,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1161</v>
+        <v>1074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1126</v>
+        <v>1093</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36214</v>
+        <v>36491</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1255</v>
+        <v>1115</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>39956</v>
+        <v>39811</v>
       </c>
     </row>
     <row r="27">
@@ -2771,31 +2771,31 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>12102</v>
+        <v>12181</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8131</v>
+        <v>7416</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10917</v>
+        <v>10757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11237</v>
+        <v>10793</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55020</v>
+        <v>55347</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7241</v>
+        <v>8304</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>10350</v>
+        <v>10687</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11838</v>
+        <v>11944</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>61244</v>
+        <v>62209</v>
       </c>
     </row>
     <row r="28">
@@ -2898,40 +2898,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5116</v>
+        <v>5407</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9892</v>
+        <v>10935</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>66834</v>
+        <v>68681</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10606</v>
+        <v>10786</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19484</v>
+        <v>18957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13951</v>
+        <v>14027</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>113585</v>
+        <v>113398</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>18968</v>
+        <v>19189</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>32416</v>
+        <v>32788</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>28171</v>
+        <v>29419</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>189620</v>
+        <v>189536</v>
       </c>
     </row>
     <row r="31">
@@ -2942,40 +2942,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19910</v>
+        <v>20814</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27202</v>
+        <v>28484</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>100789</v>
+        <v>102860</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29231</v>
+        <v>29496</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>42596</v>
+        <v>42626</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>33521</v>
+        <v>34617</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>146162</v>
+        <v>147077</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>44420</v>
+        <v>43701</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>61445</v>
+        <v>62070</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>53651</v>
+        <v>55367</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>234559</v>
+        <v>235044</v>
       </c>
     </row>
     <row r="32">
